--- a/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T12:59:14+00:00</t>
+    <t>2025-01-27T13:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T13:22:50+00:00</t>
+    <t>2025-01-27T13:43:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T13:43:29+00:00</t>
+    <t>2025-01-27T13:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T13:50:37+00:00</t>
+    <t>2025-01-27T14:03:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T14:03:11+00:00</t>
+    <t>2025-01-27T14:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T14:11:04+00:00</t>
+    <t>2025-01-27T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T14:23:03+00:00</t>
+    <t>2025-01-27T14:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T14:30:05+00:00</t>
+    <t>2025-01-27T15:06:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/feature/change-sql-queries/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T15:06:21+00:00</t>
+    <t>2025-01-27T15:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
